--- a/phase3/resources/SLS+data.xlsx
+++ b/phase3/resources/SLS+data.xlsx
@@ -995,9 +995,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="205" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1006,6 +1003,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="219">
@@ -1497,7 +1497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1780,10 +1780,10 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1800,10 +1800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="28">
       <c r="A2" s="22" t="s">
@@ -1853,7 +1853,7 @@
       <c r="F3" s="19">
         <v>60</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1882,7 +1882,7 @@
       <c r="F4" s="19">
         <v>7</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1911,7 +1911,7 @@
       <c r="F5" s="26">
         <v>15</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1940,7 +1940,7 @@
       <c r="F6" s="19">
         <v>20</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1969,7 +1969,7 @@
       <c r="F7" s="25">
         <v>10</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1998,7 +1998,7 @@
       <c r="F8" s="19">
         <v>20</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2027,13 +2027,13 @@
       <c r="F9" s="19">
         <v>60</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>150</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2056,13 +2056,13 @@
       <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>151</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2085,13 +2085,13 @@
       <c r="F11" s="26">
         <v>15</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>152</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2114,13 +2114,13 @@
       <c r="F12" s="19">
         <v>20</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>153</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2143,13 +2143,13 @@
       <c r="F13" s="25">
         <v>10</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2172,13 +2172,13 @@
       <c r="F14" s="19">
         <v>20</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>155</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2201,13 +2201,13 @@
       <c r="F15" s="19">
         <v>60</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>156</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="F16" s="19">
         <v>7</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>157</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2259,7 +2259,7 @@
       <c r="F17" s="26">
         <v>15</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>158</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2288,7 +2288,7 @@
       <c r="F18" s="19">
         <v>20</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>159</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2317,7 +2317,7 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -2346,7 +2346,7 @@
       <c r="F20" s="19">
         <v>20</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2375,7 +2375,7 @@
       <c r="F21" s="25">
         <v>10</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>162</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2404,7 +2404,7 @@
       <c r="F22" s="19">
         <v>20</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>163</v>
       </c>
       <c r="H22" s="1" t="s">
